--- a/biology/Zoologie/Homotherium_venezuelensis/Homotherium_venezuelensis.xlsx
+++ b/biology/Zoologie/Homotherium_venezuelensis/Homotherium_venezuelensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homotherium venezuelensis est une espèce fossile de félidés de la sous-famille des Machairodontinae ainsi qu'au genre Homotherium, ayant vécu il y a environ 1,8 million d'années[1] dans ce qui sera plus tard le Venezuela[2]. Ce félin préhistorique se distingue par le fait qu'il est, avec Smilodon populator, l'une des premières espèces de ce genre découverte en Amérique du Sud[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homotherium venezuelensis est une espèce fossile de félidés de la sous-famille des Machairodontinae ainsi qu'au genre Homotherium, ayant vécu il y a environ 1,8 million d'années dans ce qui sera plus tard le Venezuela. Ce félin préhistorique se distingue par le fait qu'il est, avec Smilodon populator, l'une des premières espèces de ce genre découverte en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Homotherium venezuelensis a été décrite en 2011 par Ascanio D. Rincón (d), Francisco J. Prevosti (d) et Gilberto E. Parra (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Homotherium venezuelensis a été décrite en 2011 par Ascanio D. Rincón (d), Francisco J. Prevosti (d) et Gilberto E. Parra (d).
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles d'H. venezuelensis ont été découverts à quelque 20 km de Maturín, dans l'État de Monagas, dans l'Est du Venezuela, par le Dr. Ascanio D. Rincón, paléontologue de l'Institut Vénézuélien de Recherches Scientifiques (IVIC) et des employés de la compagnie de l'État Pétroles du Venezuela (PDVSA). Cet Homotherini mesure 1,50 m de longueur et sa hauteur est de 80 cm au garrot[4].
-Sa masse avait été initialement annoncée à 250 kg. Cependant, son squelette est en réalité plus petit que celui de son proche parent Homotherium serum (estimé à 190 kg). Des calculs postérieurs ont actualisé la masse de l'animal entre 100 et 150 kg[5]. Homotherium venezuelensis est plus petit que son parent du même continent, Smilodon populator, avec des pattes proportionnellement plus longues. Les dents de sabre de cet animal sont plus courtes que celles des autres machairodontes comme Megantereon et Smilodon, mais ceux-ci étaient plus robustes et résistants, en raison d'une base dentaire plus large.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles d'H. venezuelensis ont été découverts à quelque 20 km de Maturín, dans l'État de Monagas, dans l'Est du Venezuela, par le Dr. Ascanio D. Rincón, paléontologue de l'Institut Vénézuélien de Recherches Scientifiques (IVIC) et des employés de la compagnie de l'État Pétroles du Venezuela (PDVSA). Cet Homotherini mesure 1,50 m de longueur et sa hauteur est de 80 cm au garrot.
+Sa masse avait été initialement annoncée à 250 kg. Cependant, son squelette est en réalité plus petit que celui de son proche parent Homotherium serum (estimé à 190 kg). Des calculs postérieurs ont actualisé la masse de l'animal entre 100 et 150 kg. Homotherium venezuelensis est plus petit que son parent du même continent, Smilodon populator, avec des pattes proportionnellement plus longues. Les dents de sabre de cet animal sont plus courtes que celles des autres machairodontes comme Megantereon et Smilodon, mais ceux-ci étaient plus robustes et résistants, en raison d'une base dentaire plus large.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homotherium venezuelensis a vécu dans ce qui est aujourd'hui le Venezuela, au Pléistocène inférieur, il y a environ 1,8 million d'années[2],[1]. Il est vraisemblablement un prédateur dans son écosystème avec d'autres carnivores découverts dans la même zone comme le félidé à dents de sabre (Smilodon populator), le reptile (Caiman venezuelensis) et même un possible oiseau-terreur (Phorusrhacidae), ainsi que des condors et des gavials[6],[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homotherium venezuelensis a vécu dans ce qui est aujourd'hui le Venezuela, au Pléistocène inférieur, il y a environ 1,8 million d'années,. Il est vraisemblablement un prédateur dans son écosystème avec d'autres carnivores découverts dans la même zone comme le félidé à dents de sabre (Smilodon populator), le reptile (Caiman venezuelensis) et même un possible oiseau-terreur (Phorusrhacidae), ainsi que des condors et des gavials,.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de venezuel[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de venezuel[a] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Ascanio D. Rincón, Francisco J. Prevosti et Gilberto E. Parra, « New saber-toothed cat records (Felidae: Machairodontinae) for the Pleistocene of Venezuela, and the Great American Biotic Interchange », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 31, no 2,‎ 17 mars 2011, p. 468-478 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1080/02724634.2011.550366, lire en ligne)</t>
         </is>
